--- a/Reports/IndMFData/IndMF_MultiCap.xlsx
+++ b/Reports/IndMFData/IndMF_MultiCap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324A3F13-F513-9C40-A6B3-966685FE62DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1296B6-39F2-8F4C-8AE7-E42AFF5D1C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Reports/IndMFData/IndMF_MultiCap.xlsx
+++ b/Reports/IndMFData/IndMF_MultiCap.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1296B6-39F2-8F4C-8AE7-E42AFF5D1C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BE1296B6-39F2-8F4C-8AE7-E42AFF5D1C29}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19380" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="NAV" sheetId="2" r:id="rId1"/>
+    <sheet name="NAV" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Nov_21</t>
   </si>
@@ -92,12 +92,22 @@
   </si>
   <si>
     <t>Nov_22</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nov_25</t>
+  </si>
+  <si>
+    <t>Nov_26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +127,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,39 +170,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="68">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -179,10 +263,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -217,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -269,7 +353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -380,21 +464,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -411,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -463,14 +547,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -479,15 +563,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -495,21 +587,33 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>82.435000000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>82.471999999999994</v>
+      <c r="B2" s="46" t="n">
+        <v>82.411</v>
+      </c>
+      <c r="C2" s="24" t="n">
+        <v>82.929</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>82.435</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>82.472</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="47" t="n">
+        <v>11.558</v>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>11.614</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>11.48</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1" t="n">
         <v>11.574</v>
       </c>
     </row>
@@ -517,10 +621,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="48" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>32.76</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1" t="n">
         <v>32.89</v>
       </c>
     </row>
@@ -528,10 +638,16 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>160.44880000000001</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="49" t="n">
+        <v>161.9235</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>162.8194</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>160.4488</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>161.5027</v>
       </c>
     </row>
@@ -539,65 +655,101 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="50" t="n">
+        <v>39.611</v>
+      </c>
+      <c r="C6" s="28" t="n">
+        <v>39.711</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>39.33</v>
       </c>
-      <c r="C6" s="1">
-        <v>39.587000000000003</v>
+      <c r="E6" s="1" t="n">
+        <v>39.587</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>101.17919999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>101.31010000000001</v>
+      <c r="B7" s="51" t="n">
+        <v>101.9347</v>
+      </c>
+      <c r="C7" s="29" t="n">
+        <v>102.274</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>101.1792</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>101.3101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
-        <v>43.768999999999998</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44.024999999999999</v>
+      <c r="B8" s="52" t="n">
+        <v>44.204</v>
+      </c>
+      <c r="C8" s="30" t="n">
+        <v>44.281</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>43.769</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>44.025</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="53" t="n">
+        <v>313.69</v>
+      </c>
+      <c r="C9" s="31" t="n">
+        <v>315.21</v>
+      </c>
+      <c r="D9" s="9" t="n">
         <v>310.5</v>
       </c>
-      <c r="C9" s="1">
-        <v>310.79000000000002</v>
+      <c r="E9" s="1" t="n">
+        <v>310.79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
-        <v>34.232900000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>34.395899999999997</v>
+      <c r="B10" s="54" t="n">
+        <v>34.5532</v>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>34.5398</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>34.2329</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>34.3959</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="55" t="n">
+        <v>804.06</v>
+      </c>
+      <c r="C11" s="33" t="n">
+        <v>806.77</v>
+      </c>
+      <c r="D11" s="11" t="n">
         <v>796.42</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1" t="n">
         <v>799.82</v>
       </c>
     </row>
@@ -605,21 +757,33 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
-        <v>28.164899999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>28.381699999999999</v>
+      <c r="B12" s="56" t="n">
+        <v>28.3528</v>
+      </c>
+      <c r="C12" s="34" t="n">
+        <v>28.5326</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <v>28.1649</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>28.3817</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="57" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="C13" s="35" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D13" s="13" t="n">
         <v>23.4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1" t="n">
         <v>23.54</v>
       </c>
     </row>
@@ -627,10 +791,16 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
-        <v>10.701000000000001</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="58" t="n">
+        <v>10.7367</v>
+      </c>
+      <c r="C14" s="36" t="n">
+        <v>10.7948</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>10.701</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>10.7348</v>
       </c>
     </row>
@@ -638,10 +808,16 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="59" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="C15" s="37" t="n">
+        <v>52.97</v>
+      </c>
+      <c r="D15" s="15" t="n">
         <v>52.4</v>
       </c>
-      <c r="C15" s="1">
+      <c r="E15" s="1" t="n">
         <v>52.63</v>
       </c>
     </row>
@@ -649,10 +825,16 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
-        <v>15.545999999999999</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="60" t="n">
+        <v>15.682</v>
+      </c>
+      <c r="C16" s="38" t="n">
+        <v>15.729</v>
+      </c>
+      <c r="D16" s="16" t="n">
+        <v>15.546</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>15.647</v>
       </c>
     </row>
@@ -660,21 +842,33 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
-        <v>44.926499999999997</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45.029800000000002</v>
+      <c r="B17" s="61" t="n">
+        <v>45.3428</v>
+      </c>
+      <c r="C17" s="39" t="n">
+        <v>45.5393</v>
+      </c>
+      <c r="D17" s="17" t="n">
+        <v>44.9265</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>45.0298</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="18">
-        <v>144.63999999999999</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="62" t="n">
+        <v>145.94</v>
+      </c>
+      <c r="C18" s="40" t="n">
+        <v>146.13</v>
+      </c>
+      <c r="D18" s="18" t="n">
+        <v>144.64</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>145.69</v>
       </c>
     </row>
@@ -682,10 +876,16 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="63" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="C19" s="41" t="n">
+        <v>150.24</v>
+      </c>
+      <c r="D19" s="19" t="n">
         <v>148.35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="E19" s="1" t="n">
         <v>148.87</v>
       </c>
     </row>
@@ -693,21 +893,33 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
-        <v>194.56909999999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>196.26480000000001</v>
+      <c r="B20" s="64" t="n">
+        <v>193.6905</v>
+      </c>
+      <c r="C20" s="42" t="n">
+        <v>195.3673</v>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>194.5691</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>196.2648</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="65" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="C21" s="43" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="D21" s="21" t="n">
         <v>21.42</v>
       </c>
-      <c r="C21" s="1">
+      <c r="E21" s="1" t="n">
         <v>21.55</v>
       </c>
     </row>
@@ -715,10 +927,16 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="66" t="n">
+        <v>11.797</v>
+      </c>
+      <c r="C22" s="44" t="n">
+        <v>11.852</v>
+      </c>
+      <c r="D22" s="22" t="n">
         <v>11.754</v>
       </c>
-      <c r="C22" s="1">
+      <c r="E22" s="1" t="n">
         <v>11.81</v>
       </c>
     </row>
@@ -726,14 +944,20 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="67" t="n">
+        <v>27.4802</v>
+      </c>
+      <c r="C23" s="45" t="n">
+        <v>27.4561</v>
+      </c>
+      <c r="D23" s="23" t="n">
         <v>27.3172</v>
       </c>
-      <c r="C23" s="1">
-        <v>27.501000000000001</v>
+      <c r="E23" s="1" t="n">
+        <v>27.501</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Reports/IndMFData/IndMF_MultiCap.xlsx
+++ b/Reports/IndMFData/IndMF_MultiCap.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6663" uniqueCount="205">
   <si>
     <t>Nov_21</t>
   </si>
@@ -1516,8 +1516,8 @@
     <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2499,14 +2499,26 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="468" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="468" t="s">
+      <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="468" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2514,10 +2526,19 @@
       <c r="A2" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="617" t="s">
+      <c r="B2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="468" t="s">
+      <c r="C2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="617" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="468" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2525,10 +2546,19 @@
       <c r="A3" s="468" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="618" t="s">
+      <c r="B3" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="468" t="s">
+      <c r="C3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="618" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="468" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2537,7 +2567,10 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="468" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="468" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2546,7 +2579,10 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="468" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="468" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2555,7 +2591,10 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="468" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="468" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2564,7 +2603,10 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="468" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="468" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2573,7 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="468" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="468" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2582,7 +2627,10 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="468" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="468" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2591,7 +2639,10 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="468" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="468" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2600,7 +2651,10 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="468" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="468" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2609,7 +2663,10 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="468" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="468" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2618,7 +2675,10 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="468" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="468" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2627,7 +2687,10 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="468" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="468" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2636,7 +2699,10 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="468" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="468" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2645,7 +2711,10 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="468" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="468" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2654,7 +2723,10 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="468" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="468" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2663,7 +2735,10 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="468" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="468" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2672,7 +2747,10 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="468" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="468" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2681,7 +2759,10 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="468" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="468" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2690,7 +2771,10 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="468" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="468" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2699,7 +2783,10 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="468" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="468" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2708,7 +2795,10 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="468" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="468" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2735,6 +2825,9 @@
     <col min="6" max="6" customWidth="true" width="25.33203125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2742,7 +2835,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -2751,12 +2844,21 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2764,25 +2866,34 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="602" t="s">
+      <c r="B2" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="602" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="535" t="s">
+      <c r="G2" s="535" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="469" t="s">
+      <c r="H2" s="469" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="313" t="s">
+      <c r="I2" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="J2" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2790,25 +2901,34 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="603" t="s">
+      <c r="B3" t="s">
         <v>189</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="603" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="536" t="s">
+      <c r="G3" s="536" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="470" t="s">
+      <c r="H3" s="470" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="314" t="s">
+      <c r="I3" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="J3" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="K3" s="28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2817,22 +2937,25 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="537" t="s">
+      <c r="G4" s="537" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="471" t="s">
+      <c r="H4" s="471" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="315" t="s">
+      <c r="I4" s="315" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="J4" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2841,22 +2964,25 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="538" t="s">
+      <c r="G5" s="538" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="472" t="s">
+      <c r="H5" s="472" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="316" t="s">
+      <c r="I5" s="316" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="J5" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2865,22 +2991,25 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="539" t="s">
+      <c r="G6" s="539" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="473" t="s">
+      <c r="H6" s="473" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="317" t="s">
+      <c r="I6" s="317" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="141" t="s">
+      <c r="J6" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="K6" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2889,22 +3018,25 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="540" t="s">
+      <c r="G7" s="540" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="474" t="s">
+      <c r="H7" s="474" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="318" t="s">
+      <c r="I7" s="318" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="J7" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="K7" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2913,22 +3045,25 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="541" t="s">
+      <c r="G8" s="541" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="475" t="s">
+      <c r="H8" s="475" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="319" t="s">
+      <c r="I8" s="319" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="J8" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="K8" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2937,22 +3072,25 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="542" t="s">
+      <c r="G9" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="476" t="s">
+      <c r="H9" s="476" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="320" t="s">
+      <c r="I9" s="320" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="J9" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2961,22 +3099,25 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="543" t="s">
+      <c r="G10" s="543" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="477" t="s">
+      <c r="H10" s="477" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="321" t="s">
+      <c r="I10" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="J10" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="K10" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2985,22 +3126,25 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="544" t="s">
+      <c r="G11" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="478" t="s">
+      <c r="H11" s="478" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="322" t="s">
+      <c r="I11" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="J11" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="K11" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3009,22 +3153,25 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="545" t="s">
+      <c r="G12" s="545" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="479" t="s">
+      <c r="H12" s="479" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="323" t="s">
+      <c r="I12" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="J12" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="K12" s="37" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3033,22 +3180,25 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="546" t="s">
+      <c r="G13" s="546" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="480" t="s">
+      <c r="H13" s="480" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="324" t="s">
+      <c r="I13" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="148" t="s">
+      <c r="J13" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="K13" s="38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3057,22 +3207,25 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="547" t="s">
+      <c r="G14" s="547" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="481" t="s">
+      <c r="H14" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="325" t="s">
+      <c r="I14" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="J14" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="K14" s="39" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3081,22 +3234,25 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="548" t="s">
+      <c r="G15" s="548" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="482" t="s">
+      <c r="H15" s="482" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="326" t="s">
+      <c r="I15" s="326" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="150" t="s">
+      <c r="J15" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="K15" s="40" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3105,22 +3261,25 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="549" t="s">
+      <c r="G16" s="549" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="483" t="s">
+      <c r="H16" s="483" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="327" t="s">
+      <c r="I16" s="327" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="151" t="s">
+      <c r="J16" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="K16" s="41" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3129,22 +3288,25 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="550" t="s">
+      <c r="G17" s="550" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="484" t="s">
+      <c r="H17" s="484" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="328" t="s">
+      <c r="I17" s="328" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="152" t="s">
+      <c r="J17" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="K17" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3153,22 +3315,25 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="551" t="s">
+      <c r="G18" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="485" t="s">
+      <c r="H18" s="485" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="329" t="s">
+      <c r="I18" s="329" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="153" t="s">
+      <c r="J18" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="K18" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3177,22 +3342,25 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="552" t="s">
+      <c r="G19" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="486" t="s">
+      <c r="H19" s="486" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="330" t="s">
+      <c r="I19" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="154" t="s">
+      <c r="J19" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="K19" s="44" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3201,22 +3369,25 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="553" t="s">
+      <c r="G20" s="553" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="487" t="s">
+      <c r="H20" s="487" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="331" t="s">
+      <c r="I20" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="155" t="s">
+      <c r="J20" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="K20" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3225,22 +3396,25 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="554" t="s">
+      <c r="G21" s="554" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="488" t="s">
+      <c r="H21" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="332" t="s">
+      <c r="I21" s="332" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="156" t="s">
+      <c r="J21" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="K21" s="46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3249,22 +3423,25 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="555" t="s">
+      <c r="G22" s="555" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="489" t="s">
+      <c r="H22" s="489" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="333" t="s">
+      <c r="I22" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="157" t="s">
+      <c r="J22" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="K22" s="47" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3273,22 +3450,25 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="556" t="s">
+      <c r="G23" s="556" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="490" t="s">
+      <c r="H23" s="490" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="334" t="s">
+      <c r="I23" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="158" t="s">
+      <c r="J23" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="K23" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3316,6 +3496,9 @@
     <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3323,7 +3506,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -3332,15 +3515,24 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3348,28 +3540,37 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="604" t="s">
+      <c r="B2" t="s">
         <v>190</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="604" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="557" t="s">
+      <c r="H2" s="557" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="491" t="s">
+      <c r="I2" s="491" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="335" t="s">
+      <c r="J2" s="335" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="K2" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="L2" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3377,28 +3578,37 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="605" t="s">
+      <c r="B3" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="605" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="558" t="s">
+      <c r="H3" s="558" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="492" t="s">
+      <c r="I3" s="492" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="336" t="s">
+      <c r="J3" s="336" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="K3" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="L3" s="50" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3407,25 +3617,28 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="559" t="s">
+      <c r="H4" s="559" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="493" t="s">
+      <c r="I4" s="493" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="J4" s="337" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="K4" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="L4" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3434,25 +3647,28 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="560" t="s">
+      <c r="H5" s="560" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="494" t="s">
+      <c r="I5" s="494" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="338" t="s">
+      <c r="J5" s="338" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="162" t="s">
+      <c r="K5" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3461,25 +3677,28 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="561" t="s">
+      <c r="H6" s="561" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="495" t="s">
+      <c r="I6" s="495" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="339" t="s">
+      <c r="J6" s="339" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="163" t="s">
+      <c r="K6" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="L6" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3488,25 +3707,28 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="562" t="s">
+      <c r="H7" s="562" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="496" t="s">
+      <c r="I7" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="340" t="s">
+      <c r="J7" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="K7" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="L7" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3515,25 +3737,28 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="563" t="s">
+      <c r="H8" s="563" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="497" t="s">
+      <c r="I8" s="497" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="341" t="s">
+      <c r="J8" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="165" t="s">
+      <c r="K8" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="L8" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3542,25 +3767,28 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="564" t="s">
+      <c r="H9" s="564" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="498" t="s">
+      <c r="I9" s="498" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="342" t="s">
+      <c r="J9" s="342" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="166" t="s">
+      <c r="K9" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="L9" s="56" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3569,25 +3797,28 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="565" t="s">
+      <c r="H10" s="565" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="499" t="s">
+      <c r="I10" s="499" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="343" t="s">
+      <c r="J10" s="343" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="167" t="s">
+      <c r="K10" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="L10" s="57" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3596,25 +3827,28 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="566" t="s">
+      <c r="H11" s="566" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="I11" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="344" t="s">
+      <c r="J11" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="168" t="s">
+      <c r="K11" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="L11" s="58" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3623,25 +3857,28 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="567" t="s">
+      <c r="H12" s="567" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="501" t="s">
+      <c r="I12" s="501" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="345" t="s">
+      <c r="J12" s="345" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="169" t="s">
+      <c r="K12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="L12" s="59" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3650,25 +3887,28 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="568" t="s">
+      <c r="H13" s="568" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="502" t="s">
+      <c r="I13" s="502" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="346" t="s">
+      <c r="J13" s="346" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="170" t="s">
+      <c r="K13" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="L13" s="60" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3677,25 +3917,28 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="569" t="s">
+      <c r="H14" s="569" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="503" t="s">
+      <c r="I14" s="503" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="347" t="s">
+      <c r="J14" s="347" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="171" t="s">
+      <c r="K14" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="L14" s="61" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3704,25 +3947,28 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="570" t="s">
+      <c r="H15" s="570" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="504" t="s">
+      <c r="I15" s="504" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="348" t="s">
+      <c r="J15" s="348" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="172" t="s">
+      <c r="K15" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="L15" s="62" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3731,25 +3977,28 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="571" t="s">
+      <c r="H16" s="571" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="505" t="s">
+      <c r="I16" s="505" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="349" t="s">
+      <c r="J16" s="349" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="173" t="s">
+      <c r="K16" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="L16" s="63" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3758,25 +4007,28 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="572" t="s">
+      <c r="H17" s="572" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="506" t="s">
+      <c r="I17" s="506" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="350" t="s">
+      <c r="J17" s="350" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="174" t="s">
+      <c r="K17" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="L17" s="64" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3785,25 +4037,28 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="573" t="s">
+      <c r="H18" s="573" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="507" t="s">
+      <c r="I18" s="507" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="351" t="s">
+      <c r="J18" s="351" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="175" t="s">
+      <c r="K18" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="L18" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3812,25 +4067,28 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="574" t="s">
+      <c r="H19" s="574" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="508" t="s">
+      <c r="I19" s="508" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="352" t="s">
+      <c r="J19" s="352" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="176" t="s">
+      <c r="K19" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="L19" s="66" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3839,25 +4097,28 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="575" t="s">
+      <c r="H20" s="575" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="509" t="s">
+      <c r="I20" s="509" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="353" t="s">
+      <c r="J20" s="353" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="177" t="s">
+      <c r="K20" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="L20" s="67" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3866,25 +4127,28 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="576" t="s">
+      <c r="H21" s="576" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="510" t="s">
+      <c r="I21" s="510" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="354" t="s">
+      <c r="J21" s="354" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="178" t="s">
+      <c r="K21" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="L21" s="68" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3893,25 +4157,28 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="577" t="s">
+      <c r="H22" s="577" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="511" t="s">
+      <c r="I22" s="511" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="355" t="s">
+      <c r="J22" s="355" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="179" t="s">
+      <c r="K22" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="L22" s="69" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3920,25 +4187,28 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="578" t="s">
+      <c r="H23" s="578" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="512" t="s">
+      <c r="I23" s="512" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="356" t="s">
+      <c r="J23" s="356" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="180" t="s">
+      <c r="K23" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="L23" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3966,6 +4236,9 @@
     <col min="7" max="7" customWidth="true" width="7.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="7.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3973,7 +4246,7 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>185</v>
@@ -3982,15 +4255,24 @@
         <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3998,28 +4280,37 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="606" t="s">
+      <c r="B2" t="s">
         <v>192</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="606" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="579" t="s">
+      <c r="H2" s="579" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="513" t="s">
+      <c r="I2" s="513" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="357" t="s">
+      <c r="J2" s="357" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="181" t="s">
+      <c r="K2" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="25" t="n">
+      <c r="L2" s="25" t="n">
         <v>0.0088</v>
       </c>
     </row>
@@ -4027,28 +4318,37 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="607" t="s">
+      <c r="B3" t="s">
         <v>193</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="607" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="580" t="s">
+      <c r="H3" s="580" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="514" t="s">
+      <c r="I3" s="514" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="358" t="s">
+      <c r="J3" s="358" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="182" t="s">
+      <c r="K3" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="25" t="n">
+      <c r="L3" s="25" t="n">
         <v>0.007</v>
       </c>
     </row>
@@ -4057,25 +4357,28 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="581" t="s">
+      <c r="H4" s="581" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="515" t="s">
+      <c r="I4" s="515" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="359" t="s">
+      <c r="J4" s="359" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="183" t="s">
+      <c r="K4" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="25" t="n">
+      <c r="L4" s="25" t="n">
         <v>0.0063</v>
       </c>
     </row>
@@ -4084,25 +4387,28 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="582" t="s">
+      <c r="H5" s="582" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="516" t="s">
+      <c r="I5" s="516" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="360" t="s">
+      <c r="J5" s="360" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="184" t="s">
+      <c r="K5" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="25" t="n">
+      <c r="L5" s="25" t="n">
         <v>0.0103</v>
       </c>
     </row>
@@ -4111,25 +4417,28 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="583" t="s">
+      <c r="H6" s="583" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="517" t="s">
+      <c r="I6" s="517" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="361" t="s">
+      <c r="J6" s="361" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="K6" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="25" t="n">
+      <c r="L6" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
@@ -4138,25 +4447,28 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="584" t="s">
+      <c r="H7" s="584" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="518" t="s">
+      <c r="I7" s="518" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="362" t="s">
+      <c r="J7" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="186" t="s">
+      <c r="K7" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="25" t="n">
+      <c r="L7" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
@@ -4165,25 +4477,28 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="585" t="s">
+      <c r="H8" s="585" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="519" t="s">
+      <c r="I8" s="519" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="363" t="s">
+      <c r="J8" s="363" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="187" t="s">
+      <c r="K8" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="25" t="n">
+      <c r="L8" s="25" t="n">
         <v>0.0114</v>
       </c>
     </row>
@@ -4192,25 +4507,28 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="586" t="s">
+      <c r="H9" s="586" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="520" t="s">
+      <c r="I9" s="520" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="364" t="s">
+      <c r="J9" s="364" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="188" t="s">
+      <c r="K9" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="25" t="n">
+      <c r="L9" s="25" t="n">
         <v>0.0125</v>
       </c>
     </row>
@@ -4219,25 +4537,28 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="587" t="s">
+      <c r="H10" s="587" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="521" t="s">
+      <c r="I10" s="521" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="365" t="s">
+      <c r="J10" s="365" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="K10" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="25" t="n">
+      <c r="L10" s="25" t="n">
         <v>0.0069</v>
       </c>
     </row>
@@ -4246,25 +4567,28 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="588" t="s">
+      <c r="H11" s="588" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="522" t="s">
+      <c r="I11" s="522" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="366" t="s">
+      <c r="J11" s="366" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="190" t="s">
+      <c r="K11" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="25" t="n">
+      <c r="L11" s="25" t="n">
         <v>0.0121</v>
       </c>
     </row>
@@ -4273,25 +4597,28 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="589" t="s">
+      <c r="H12" s="589" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="523" t="s">
+      <c r="I12" s="523" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="367" t="s">
+      <c r="J12" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="K12" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="25" t="n">
+      <c r="L12" s="25" t="n">
         <v>0.0038</v>
       </c>
     </row>
@@ -4300,25 +4627,28 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="590" t="s">
+      <c r="H13" s="590" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="524" t="s">
+      <c r="I13" s="524" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="368" t="s">
+      <c r="J13" s="368" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="192" t="s">
+      <c r="K13" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="25" t="n">
+      <c r="L13" s="25" t="n">
         <v>0.016</v>
       </c>
     </row>
@@ -4327,25 +4657,28 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="601" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="601" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="G14" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="E14" s="591" t="s">
+      <c r="H14" s="591" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="525" t="s">
+      <c r="I14" s="525" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="369" t="s">
+      <c r="J14" s="369" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="193" t="s">
+      <c r="K14" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="25" t="n">
+      <c r="L14" s="25" t="n">
         <v>0.0144</v>
       </c>
     </row>
@@ -4354,25 +4687,28 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="592" t="s">
+      <c r="H15" s="592" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="526" t="s">
+      <c r="I15" s="526" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="370" t="s">
+      <c r="J15" s="370" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="194" t="s">
+      <c r="K15" s="194" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="25" t="n">
+      <c r="L15" s="25" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -4381,25 +4717,28 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="593" t="s">
+      <c r="H16" s="593" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="527" t="s">
+      <c r="I16" s="527" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="371" t="s">
+      <c r="J16" s="371" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="195" t="s">
+      <c r="K16" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="25" t="n">
+      <c r="L16" s="25" t="n">
         <v>0.0092</v>
       </c>
     </row>
@@ -4408,25 +4747,28 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="594" t="s">
+      <c r="H17" s="594" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="528" t="s">
+      <c r="I17" s="528" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="372" t="s">
+      <c r="J17" s="372" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="196" t="s">
+      <c r="K17" s="196" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="25" t="n">
+      <c r="L17" s="25" t="n">
         <v>0.0095</v>
       </c>
     </row>
@@ -4435,25 +4777,28 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="595" t="s">
+      <c r="H18" s="595" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="529" t="s">
+      <c r="I18" s="529" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="373" t="s">
+      <c r="J18" s="373" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="197" t="s">
+      <c r="K18" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="25" t="n">
+      <c r="L18" s="25" t="n">
         <v>0.0078</v>
       </c>
     </row>
@@ -4462,25 +4807,28 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="596" t="s">
+      <c r="H19" s="596" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="530" t="s">
+      <c r="I19" s="530" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="374" t="s">
+      <c r="J19" s="374" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="198" t="s">
+      <c r="K19" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="25" t="n">
+      <c r="L19" s="25" t="n">
         <v>0.0077</v>
       </c>
     </row>
@@ -4489,25 +4837,28 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="597" t="s">
+      <c r="H20" s="597" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="531" t="s">
+      <c r="I20" s="531" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="375" t="s">
+      <c r="J20" s="375" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="199" t="s">
+      <c r="K20" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="25" t="n">
+      <c r="L20" s="25" t="n">
         <v>0.0102</v>
       </c>
     </row>
@@ -4516,25 +4867,28 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="598" t="s">
+      <c r="H21" s="598" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="532" t="s">
+      <c r="I21" s="532" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="376" t="s">
+      <c r="J21" s="376" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="200" t="s">
+      <c r="K21" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="25" t="n">
+      <c r="L21" s="25" t="n">
         <v>0.0071</v>
       </c>
     </row>
@@ -4543,25 +4897,28 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="599" t="s">
+      <c r="H22" s="599" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="533" t="s">
+      <c r="I22" s="533" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="377" t="s">
+      <c r="J22" s="377" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="201" t="s">
+      <c r="K22" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="25" t="n">
+      <c r="L22" s="25" t="n">
         <v>0.0238</v>
       </c>
     </row>
@@ -4570,25 +4927,28 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="600" t="s">
+      <c r="H23" s="600" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="534" t="s">
+      <c r="I23" s="534" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="378" t="s">
+      <c r="J23" s="378" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="202" t="s">
+      <c r="K23" s="202" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="25" t="n">
+      <c r="L23" s="25" t="n">
         <v>0.0179</v>
       </c>
     </row>
@@ -4610,6 +4970,9 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="26" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="19.5" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4617,6 +4980,15 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4624,10 +4996,19 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="608" t="s">
+      <c r="B2" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="608" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="71" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4638,7 +5019,16 @@
       <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4647,7 +5037,10 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="73" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4656,7 +5049,10 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="74" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4665,7 +5061,10 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="75" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4674,7 +5073,10 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="76" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4683,7 +5085,10 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="77" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4692,7 +5097,10 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="78" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4701,7 +5109,10 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="79" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4710,7 +5121,10 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="80" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4719,7 +5133,10 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="81" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4728,7 +5145,10 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="82" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4737,7 +5157,10 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="83" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4746,7 +5169,10 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="84" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4755,7 +5181,10 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="85" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4764,7 +5193,10 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="86" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4773,7 +5205,10 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="87" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4782,7 +5217,10 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="88" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4791,7 +5229,10 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="89" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4800,7 +5241,10 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="90" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4809,7 +5253,10 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="91" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4818,7 +5265,10 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="92" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4841,6 +5291,9 @@
     <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4848,9 +5301,18 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4858,13 +5320,22 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="609" t="s">
+      <c r="B2" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="609" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="G2" s="93" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4872,13 +5343,22 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="610" t="s">
+      <c r="B3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="204" t="s">
+      <c r="C3" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="610" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="G3" s="94" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4887,10 +5367,13 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="G4" s="95" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4899,10 +5382,13 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="206" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="G5" s="96" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4911,10 +5397,13 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="G6" s="97" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4923,10 +5412,13 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="208" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="G7" s="98" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4935,10 +5427,13 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="G8" s="99" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4947,10 +5442,13 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="210" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="G9" s="100" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4959,10 +5457,13 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="G10" s="101" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4971,10 +5472,13 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="G11" s="102" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4983,10 +5487,13 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="G12" s="103" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4995,10 +5502,13 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="214" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="G13" s="104" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5007,10 +5517,13 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="G14" s="105" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5019,10 +5532,13 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="G15" s="106" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5031,10 +5547,13 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="217" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="G16" s="107" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5043,10 +5562,13 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="218" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="G17" s="108" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5055,10 +5577,13 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="G18" s="109" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5067,10 +5592,13 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="G19" s="110" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5079,10 +5607,13 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="G20" s="111" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5091,10 +5622,13 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="222" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="G21" s="112" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5103,10 +5637,13 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="223" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="G22" s="113" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5115,10 +5652,13 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="224" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="G23" s="114" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5142,6 +5682,9 @@
     <col min="3" max="3" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5149,12 +5692,21 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5162,16 +5714,25 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="611" t="s">
+      <c r="B2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="379" t="s">
+      <c r="C2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="611" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="225" t="s">
+      <c r="G2" s="225" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="H2" s="115" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5179,16 +5740,25 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="612" t="s">
+      <c r="B3" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="380" t="s">
+      <c r="C3" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="612" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="380" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="226" t="s">
+      <c r="G3" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="H3" s="116" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5197,13 +5767,16 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="381" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="381" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="227" t="s">
+      <c r="G4" s="227" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="H4" s="117" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5212,13 +5785,16 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="382" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="382" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="G5" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="H5" s="118" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5227,13 +5803,16 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="383" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="383" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="229" t="s">
+      <c r="G6" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="H6" s="119" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5242,13 +5821,16 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="384" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="230" t="s">
+      <c r="G7" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="H7" s="120" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5257,13 +5839,16 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="385" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="G8" s="231" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="H8" s="121" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5272,13 +5857,16 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="386" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="386" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="G9" s="232" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="H9" s="122" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5287,13 +5875,16 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="387" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="233" t="s">
+      <c r="G10" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="H10" s="123" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5302,13 +5893,16 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="388" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="234" t="s">
+      <c r="G11" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="H11" s="124" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5317,13 +5911,16 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="389" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="389" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="G12" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="H12" s="125" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5332,13 +5929,16 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="390" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="390" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="G13" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="H13" s="126" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5347,13 +5947,16 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="391" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="391" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="237" t="s">
+      <c r="G14" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="H14" s="127" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5362,13 +5965,16 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="392" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="392" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="238" t="s">
+      <c r="G15" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="H15" s="128" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5377,13 +5983,16 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="393" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="393" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="239" t="s">
+      <c r="G16" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="129" t="s">
+      <c r="H16" s="129" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5392,13 +6001,16 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="394" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="394" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="240" t="s">
+      <c r="G17" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="H17" s="130" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5407,13 +6019,16 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="395" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="241" t="s">
+      <c r="G18" s="241" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="H18" s="131" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5422,13 +6037,16 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="396" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="396" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="242" t="s">
+      <c r="G19" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="132" t="s">
+      <c r="H19" s="132" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5437,13 +6055,16 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="397" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="397" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="243" t="s">
+      <c r="G20" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="133" t="s">
+      <c r="H20" s="133" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5452,13 +6073,16 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="398" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="398" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="244" t="s">
+      <c r="G21" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="H21" s="134" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5467,13 +6091,16 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="399" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="399" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="G22" s="245" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="H22" s="135" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5482,13 +6109,16 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="400" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="400" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="246" t="s">
+      <c r="G23" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="136" t="s">
+      <c r="H23" s="136" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5510,7 +6140,10 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="43.83203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -5519,9 +6152,18 @@
         <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5529,13 +6171,22 @@
       <c r="A2" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="613" t="s">
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="613" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="269" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="247" t="s">
+      <c r="G2" s="247" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5543,13 +6194,22 @@
       <c r="A3" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="614" t="s">
+      <c r="B3" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="614" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="270" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="248" t="s">
+      <c r="G3" s="248" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5558,10 +6218,13 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="271" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="249" t="s">
+      <c r="G4" s="249" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5570,10 +6233,13 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="272" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="250" t="s">
+      <c r="G5" s="250" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5582,10 +6248,13 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="273" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="273" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="251" t="s">
+      <c r="G6" s="251" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5594,10 +6263,13 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="274" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="252" t="s">
+      <c r="G7" s="252" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5606,10 +6278,13 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="275" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="275" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="253" t="s">
+      <c r="G8" s="253" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5618,10 +6293,13 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="276" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="254" t="s">
+      <c r="G9" s="254" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5630,10 +6308,13 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="277" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="277" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="255" t="s">
+      <c r="G10" s="255" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5642,10 +6323,13 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="278" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="278" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="256" t="s">
+      <c r="G11" s="256" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5654,10 +6338,13 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="279" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="279" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="257" t="s">
+      <c r="G12" s="257" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5666,10 +6353,13 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="280" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="258" t="s">
+      <c r="G13" s="258" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5678,10 +6368,13 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="281" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="259" t="s">
+      <c r="G14" s="259" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5690,10 +6383,13 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="282" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="260" t="s">
+      <c r="G15" s="260" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5702,10 +6398,13 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="283" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="261" t="s">
+      <c r="G16" s="261" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5714,10 +6413,13 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="284" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="262" t="s">
+      <c r="G17" s="262" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5726,10 +6428,13 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="285" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="285" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="263" t="s">
+      <c r="G18" s="263" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5738,10 +6443,13 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="286" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="264" t="s">
+      <c r="G19" s="264" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5750,10 +6458,13 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="287" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="265" t="s">
+      <c r="G20" s="265" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5762,10 +6473,13 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="288" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="288" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="266" t="s">
+      <c r="G21" s="266" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5774,10 +6488,13 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="289" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="289" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="267" t="s">
+      <c r="G22" s="267" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5786,10 +6503,13 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="290" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="268" t="s">
+      <c r="G23" s="268" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5811,6 +6531,9 @@
     <col min="1" max="1" customWidth="true" width="16.83203125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -5818,7 +6541,16 @@
       <c r="B1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="467" t="s">
+      <c r="C1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="467" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5826,10 +6558,19 @@
       <c r="A2" s="467" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="615" t="s">
+      <c r="B2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="467" t="s">
+      <c r="C2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="615" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="467" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5837,10 +6578,19 @@
       <c r="A3" s="467" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="616" t="s">
+      <c r="B3" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="467" t="s">
+      <c r="C3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="616" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="467" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5849,7 +6599,10 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="467" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="467" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5858,7 +6611,10 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="467" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="467" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5867,7 +6623,10 @@
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="467" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="467" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5876,7 +6635,10 @@
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="467" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="467" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5885,7 +6647,10 @@
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="C8" s="467" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="467" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5894,7 +6659,10 @@
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="467" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="467" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5903,7 +6671,10 @@
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="467" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="467" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5912,7 +6683,10 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11" s="467" t="s">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="467" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5921,7 +6695,10 @@
         <v>11</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="467" t="s">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="467" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5930,7 +6707,10 @@
         <v>12</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="467" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="467" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5939,7 +6719,10 @@
         <v>13</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="467" t="s">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="467" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5948,7 +6731,10 @@
         <v>14</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="467" t="s">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="467" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5957,7 +6743,10 @@
         <v>15</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="467" t="s">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="467" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5966,7 +6755,10 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="467" t="s">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="467" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5975,7 +6767,10 @@
         <v>17</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="467" t="s">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="467" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5984,7 +6779,10 @@
         <v>18</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="467" t="s">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="467" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5993,7 +6791,10 @@
         <v>19</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="467" t="s">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="467" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6002,7 +6803,10 @@
         <v>20</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="467" t="s">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="467" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6011,7 +6815,10 @@
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="467" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="467" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6020,7 +6827,10 @@
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="467" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="467" t="s">
         <v>54</v>
       </c>
     </row>
